--- a/data/trans_orig/CONS_CAT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_CAT-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en País Vasco</t>
+          <t>Consumo de medicamentos para el catarro en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en Andalucia</t>
+          <t>Consumo de medicamentos para el catarro en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en C.Valenciana</t>
+          <t>Consumo de medicamentos para el catarro en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_CAT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_CAT-Edad-trans_orig.xlsx
@@ -735,7 +735,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>495</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>768</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>267</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>1622</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>1263</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>551</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>3414</t>
+          <t>2623</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>1,83%</t>
         </is>
       </c>
     </row>
@@ -848,27 +848,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62445</t>
+          <t>76386</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61600</t>
+          <t>75131</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>99,36%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>98,06%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61232</t>
+          <t>65474</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>59687</t>
+          <t>64620</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62020</t>
+          <t>65975</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>99,6%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>123677</t>
+          <t>141860</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>121895</t>
+          <t>140500</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>124519</t>
+          <t>142572</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>99,62%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1088</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>547</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2214</t>
+          <t>2726</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>528</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>3090</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>1435</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>3081</t>
+          <t>4651</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68077</t>
+          <t>73643</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>66951</t>
+          <t>72257</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68702</t>
+          <t>74436</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,43%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,33%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61704</t>
+          <t>66734</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>60800</t>
+          <t>64958</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>62218</t>
+          <t>67520</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>98,07%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,31%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>129780</t>
+          <t>140376</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>128566</t>
+          <t>138380</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>130686</t>
+          <t>141596</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,58%</t>
+          <t>98,14%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>99,0%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>1106</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>462</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1910</t>
+          <t>2889</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2572</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1421</t>
+          <t>1778</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>5190</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2545</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>5219</t>
+          <t>6428</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,99%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93832</t>
+          <t>102854</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92785</t>
+          <t>101071</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94386</t>
+          <t>103498</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>99,56%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>94933</t>
+          <t>107551</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>93185</t>
+          <t>105525</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>96084</t>
+          <t>108937</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>188766</t>
+          <t>210405</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>186981</t>
+          <t>208247</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>190052</t>
+          <t>212130</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,21%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,88%</t>
+          <t>98,81%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>1839</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>933</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2586</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2491</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1395</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4226</t>
+          <t>5430</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>3753</t>
+          <t>5116</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>2393</t>
+          <t>3415</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>8068</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,71%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>138152</t>
+          <t>142939</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>136828</t>
+          <t>141009</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>138819</t>
+          <t>143845</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>99,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>135484</t>
+          <t>149267</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>133749</t>
+          <t>147114</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>136580</t>
+          <t>150582</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,99%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>273637</t>
+          <t>292205</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>271669</t>
+          <t>289253</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>274997</t>
+          <t>293906</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>98,28%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>98,85%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5307</t>
+          <t>4684</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3584</t>
+          <t>3116</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8062</t>
+          <t>6923</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4162</t>
+          <t>6551</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2827</t>
+          <t>4390</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6050</t>
+          <t>9293</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>9469</t>
+          <t>11235</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>7136</t>
+          <t>8481</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>12598</t>
+          <t>14507</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>5,15%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>121547</t>
+          <t>124898</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>118792</t>
+          <t>122659</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>123270</t>
+          <t>126466</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>143179</t>
+          <t>145364</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>141291</t>
+          <t>142622</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>144514</t>
+          <t>147525</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>98,08%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>264725</t>
+          <t>270263</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>261596</t>
+          <t>266991</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>267058</t>
+          <t>273017</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>96,99%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,102 +2450,102 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>2770</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1538</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4199</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2901</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6697</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>5234</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>9564</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
           <t>2,38%</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>1,43%</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>3,9%</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>4325</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>2748</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>6558</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>3,76%</t>
-        </is>
-      </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>2,39%</t>
-        </is>
-      </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>5,71%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>6888</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>4930</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>9431</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>3,1%</t>
-        </is>
-      </c>
-      <c r="V19" s="2" t="inlineStr">
-        <is>
-          <t>2,22%</t>
-        </is>
-      </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,34%</t>
         </is>
       </c>
     </row>
@@ -2563,102 +2563,102 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>105041</t>
+          <t>101696</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>103405</t>
+          <t>100243</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>106066</t>
+          <t>102771</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
+          <t>97,35%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>95,96%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>98,38%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>111389</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>109083</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>112879</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>96,21%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>94,22%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>97,49%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1304</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>213085</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>210682</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>215012</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>96,75%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>95,66%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
           <t>97,62%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>96,1%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>98,57%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>677</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>110583</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>108350</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>112160</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>96,24%</t>
-        </is>
-      </c>
-      <c r="O20" s="2" t="inlineStr">
-        <is>
-          <t>94,29%</t>
-        </is>
-      </c>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>97,61%</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>1304</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>215624</t>
-        </is>
-      </c>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t>213081</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="inlineStr">
-        <is>
-          <t>217582</t>
-        </is>
-      </c>
-      <c r="U20" s="2" t="inlineStr">
-        <is>
-          <t>96,9%</t>
-        </is>
-      </c>
-      <c r="V20" s="2" t="inlineStr">
-        <is>
-          <t>95,76%</t>
-        </is>
-      </c>
-      <c r="W20" s="2" t="inlineStr">
-        <is>
-          <t>97,78%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>2580</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>1437</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3389</t>
+          <t>4515</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>3510</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2290</t>
+          <t>3173</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>5184</t>
+          <t>7048</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>5447</t>
+          <t>7269</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>3864</t>
+          <t>5482</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>7586</t>
+          <t>10095</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>4,56%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>94418</t>
+          <t>86643</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>92966</t>
+          <t>84708</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>95321</t>
+          <t>87786</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>130421</t>
+          <t>127623</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>128747</t>
+          <t>125264</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>131641</t>
+          <t>129139</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>94,67%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>98,29%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>224839</t>
+          <t>214266</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>222700</t>
+          <t>211440</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>226422</t>
+          <t>216053</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>98,32%</t>
+          <t>97,53%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3136,32 +3136,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>13390</t>
+          <t>14814</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>10537</t>
+          <t>11743</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>16776</t>
+          <t>18672</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3171,32 +3171,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>19100</t>
+          <t>24155</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>15959</t>
+          <t>20498</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>23117</t>
+          <t>29110</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3206,32 +3206,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>32490</t>
+          <t>38969</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>27748</t>
+          <t>33585</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>37894</t>
+          <t>45020</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,96%</t>
         </is>
       </c>
     </row>
@@ -3249,32 +3249,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>683513</t>
+          <t>709058</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>680127</t>
+          <t>705200</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>686366</t>
+          <t>712129</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>98,08%</t>
+          <t>97,95%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3284,32 +3284,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>737535</t>
+          <t>773401</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>733518</t>
+          <t>768446</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>740676</t>
+          <t>777058</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>96,35%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>97,43%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3319,32 +3319,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1421048</t>
+          <t>1482460</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1415644</t>
+          <t>1476409</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1425790</t>
+          <t>1487844</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>97,04%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>97,79%</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3397,17 +3397,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2793</t>
+          <t>2754</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29739</t>
+          <t>28430</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7364</t>
+          <t>6968</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>30274</t>
+          <t>27758</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>12706</t>
+          <t>14099</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>45593</t>
+          <t>44516</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>10,58%</t>
         </is>
       </c>
     </row>
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>206497</t>
+          <t>207806</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>233443</t>
+          <t>233482</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>98,83%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>154079</t>
+          <t>156595</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>176989</t>
+          <t>177385</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>84,94%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>374996</t>
+          <t>376073</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>407883</t>
+          <t>406490</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3925,12 +3925,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>89,16%</t>
+          <t>89,42%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,98%</t>
+          <t>96,65%</t>
         </is>
       </c>
     </row>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20422</t>
+          <t>21370</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51020</t>
+          <t>50589</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8567</t>
+          <t>7969</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31863</t>
+          <t>31302</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>33095</t>
+          <t>32213</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>73860</t>
+          <t>75504</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>13,88%</t>
         </is>
       </c>
     </row>
@@ -4183,12 +4183,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>178348</t>
+          <t>178779</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>208946</t>
+          <t>207998</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>77,76%</t>
+          <t>77,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>91,1%</t>
+          <t>90,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>282565</t>
+          <t>283126</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>305861</t>
+          <t>306459</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,87%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>469936</t>
+          <t>468292</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>510701</t>
+          <t>511583</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>86,42%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>94,08%</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16518</t>
+          <t>15628</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36189</t>
+          <t>36849</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15598</t>
+          <t>15084</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>30474</t>
+          <t>30564</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>35175</t>
+          <t>35231</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>59465</t>
+          <t>60586</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>9,58%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>274580</t>
+          <t>273920</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>294251</t>
+          <t>295141</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,35%</t>
+          <t>88,14%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>94,97%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>291358</t>
+          <t>291268</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>306234</t>
+          <t>306748</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,53%</t>
+          <t>90,5%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>573135</t>
+          <t>572014</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>597425</t>
+          <t>597369</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>94,44%</t>
+          <t>94,43%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7592</t>
+          <t>7452</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48233</t>
+          <t>46218</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19302</t>
+          <t>18997</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>34411</t>
+          <t>33999</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>23327</t>
+          <t>26966</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>72878</t>
+          <t>74188</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>7,19%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>578931</t>
+          <t>580946</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>619572</t>
+          <t>619712</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>92,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>370391</t>
+          <t>370803</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>385500</t>
+          <t>385805</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>91,6%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>959088</t>
+          <t>957778</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1008639</t>
+          <t>1005000</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>92,81%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>97,39%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15070</t>
+          <t>14962</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>33216</t>
+          <t>33112</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>26394</t>
+          <t>26378</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>43205</t>
+          <t>42850</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>46046</t>
+          <t>46830</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>71779</t>
+          <t>71028</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>10,79%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>305913</t>
+          <t>306017</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>324059</t>
+          <t>324167</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,21%</t>
+          <t>90,24%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>275689</t>
+          <t>276044</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>292500</t>
+          <t>292516</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>86,45%</t>
+          <t>86,56%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>91,72%</t>
+          <t>91,73%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>586245</t>
+          <t>586996</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>611978</t>
+          <t>611194</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>89,09%</t>
+          <t>89,21%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,0%</t>
+          <t>92,88%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12271</t>
+          <t>12221</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>25890</t>
+          <t>25183</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8154</t>
+          <t>7303</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>47827</t>
+          <t>48008</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>17294</t>
+          <t>14105</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>64530</t>
+          <t>66907</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>10,13%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>182194</t>
+          <t>182901</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>195813</t>
+          <t>195863</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>87,56%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>94,13%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>404815</t>
+          <t>404634</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>444488</t>
+          <t>445339</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,43%</t>
+          <t>89,39%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>596197</t>
+          <t>593820</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>643433</t>
+          <t>646622</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,23%</t>
+          <t>89,87%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>97,87%</t>
         </is>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4474</t>
+          <t>4570</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13205</t>
+          <t>14108</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>17206</t>
+          <t>16358</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>30854</t>
+          <t>29839</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>23236</t>
+          <t>23761</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>38690</t>
+          <t>38963</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>10,12%</t>
         </is>
       </c>
     </row>
@@ -5898,12 +5898,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>138570</t>
+          <t>137667</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>147301</t>
+          <t>147205</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>90,7%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>96,99%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>202419</t>
+          <t>203434</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>216067</t>
+          <t>216915</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>86,77%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,62%</t>
+          <t>92,99%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>346358</t>
+          <t>346085</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>361812</t>
+          <t>361287</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>93,83%</t>
         </is>
       </c>
     </row>
@@ -6128,12 +6128,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>94529</t>
+          <t>99212</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>176059</t>
+          <t>178214</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>118924</t>
+          <t>116769</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>194912</t>
+          <t>194050</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6178,12 +6178,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>241226</t>
+          <t>236347</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>360918</t>
+          <t>353023</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6213,12 +6213,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,15%</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1926466</t>
+          <t>1924311</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2007996</t>
+          <t>2003313</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2035312</t>
+          <t>2036174</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2111300</t>
+          <t>2113455</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>91,26%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,67%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3971832</t>
+          <t>3979727</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4091524</t>
+          <t>4096403</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6326,12 +6326,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>94,55%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_CAT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_CAT-Edad-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para el catarro en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>13133</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>29625</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>20142</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>10003</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1622</t>
+          <t>34282</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>1263</t>
+          <t>33275</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>20244</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>2623</t>
+          <t>55474</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>12,04%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76386</t>
+          <t>228132</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75131</t>
+          <t>211640</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>236914</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,72%</t>
+          <t>87,72%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,2%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65474</t>
+          <t>199513</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>64620</t>
+          <t>185373</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65975</t>
+          <t>209652</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,84%</t>
+          <t>90,83%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>84,39%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>95,45%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>197</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>141860</t>
+          <t>427645</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>140500</t>
+          <t>405446</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>142572</t>
+          <t>440676</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>87,96%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>95,61%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>38733</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>24937</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2726</t>
+          <t>57039</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>21,77%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1314</t>
+          <t>20866</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>13506</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3090</t>
+          <t>31727</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>2655</t>
+          <t>59600</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>40724</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>4651</t>
+          <t>79957</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>14,66%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73643</t>
+          <t>223241</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72257</t>
+          <t>204935</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74436</t>
+          <t>237037</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,21%</t>
+          <t>85,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>78,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>230</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>66734</t>
+          <t>262587</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>64958</t>
+          <t>251726</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>67520</t>
+          <t>269947</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>88,81%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>95,24%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>362</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>140376</t>
+          <t>485826</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>138380</t>
+          <t>465469</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>141596</t>
+          <t>504702</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>85,34%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>92,53%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>28917</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>18585</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2889</t>
+          <t>42071</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3164</t>
+          <t>24687</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>17637</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5190</t>
+          <t>34671</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>58</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>4270</t>
+          <t>53603</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2545</t>
+          <t>41377</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>6428</t>
+          <t>69211</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>9,34%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>102854</t>
+          <t>339401</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>101071</t>
+          <t>326247</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>103498</t>
+          <t>349733</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,94%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>88,58%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,56%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>459</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>107551</t>
+          <t>347933</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>105525</t>
+          <t>337949</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>108937</t>
+          <t>354983</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>90,7%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>95,27%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>747</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>210405</t>
+          <t>687335</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>208247</t>
+          <t>671727</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>212130</t>
+          <t>699561</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>92,77%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>90,66%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>94,42%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>492</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>372620</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>372620</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>372620</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>805</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>740938</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>740938</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>740938</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>26978</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>18169</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3769</t>
+          <t>37249</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3277</t>
+          <t>28997</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>20809</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5430</t>
+          <t>37779</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>5116</t>
+          <t>55975</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>3415</t>
+          <t>44909</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>8068</t>
+          <t>72377</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>8,37%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>365</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>142939</t>
+          <t>396963</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>141009</t>
+          <t>386692</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>143845</t>
+          <t>405772</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>616</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>149267</t>
+          <t>412295</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>147114</t>
+          <t>403513</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>150582</t>
+          <t>420483</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>981</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>292205</t>
+          <t>809259</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>289253</t>
+          <t>792857</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>293906</t>
+          <t>820325</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>91,63%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>94,81%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4684</t>
+          <t>24856</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3116</t>
+          <t>15566</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6923</t>
+          <t>34813</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6551</t>
+          <t>38553</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4390</t>
+          <t>29546</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>9293</t>
+          <t>48530</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>86</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>11235</t>
+          <t>63409</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>8481</t>
+          <t>50728</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>14507</t>
+          <t>76765</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>10,54%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>373</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>124898</t>
+          <t>343187</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>122659</t>
+          <t>333230</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>126466</t>
+          <t>352477</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>95,77%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>505</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>145364</t>
+          <t>321813</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>142622</t>
+          <t>311836</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>147525</t>
+          <t>330820</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,69%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>86,53%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>878</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>270263</t>
+          <t>664999</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>266991</t>
+          <t>651643</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>273017</t>
+          <t>677680</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>91,29%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>89,46%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,99%</t>
+          <t>93,04%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>964</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2770</t>
+          <t>19444</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1695</t>
+          <t>13241</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4223</t>
+          <t>27272</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4391</t>
+          <t>27505</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2901</t>
+          <t>20374</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6697</t>
+          <t>35696</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>7161</t>
+          <t>46949</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>5234</t>
+          <t>37154</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>9564</t>
+          <t>57569</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>11,48%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>101696</t>
+          <t>211829</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>100243</t>
+          <t>204001</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>102771</t>
+          <t>218032</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>88,21%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>434</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>111389</t>
+          <t>242527</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>109083</t>
+          <t>234336</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>112879</t>
+          <t>249658</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>89,81%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>92,45%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>213085</t>
+          <t>454355</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>210682</t>
+          <t>443735</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>215012</t>
+          <t>464150</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>90,63%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>88,52%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>92,59%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2580</t>
+          <t>8630</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1437</t>
+          <t>4857</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4515</t>
+          <t>15141</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>24975</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>3173</t>
+          <t>18142</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>7048</t>
+          <t>33205</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>7269</t>
+          <t>33605</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>5482</t>
+          <t>25919</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>10095</t>
+          <t>43193</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>10,24%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>86643</t>
+          <t>156951</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>84708</t>
+          <t>150440</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>87786</t>
+          <t>160724</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>90,86%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>396</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>127623</t>
+          <t>231301</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>125264</t>
+          <t>223071</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>129139</t>
+          <t>238134</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>90,25%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>94,67%</t>
+          <t>87,04%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>614</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>214266</t>
+          <t>388252</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>211440</t>
+          <t>378664</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>216053</t>
+          <t>395938</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>92,03%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>89,76%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>93,86%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>440</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>671</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421857</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421857</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421857</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3131,107 +3131,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>14814</t>
+          <t>160692</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>11743</t>
+          <t>133639</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>18672</t>
+          <t>192279</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>259</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>24155</t>
+          <t>185724</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>20498</t>
+          <t>161968</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>29110</t>
+          <t>211761</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>400</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>38969</t>
+          <t>346416</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>33585</t>
+          <t>310917</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>45020</t>
+          <t>382592</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>8,97%</t>
         </is>
       </c>
     </row>
@@ -3244,107 +3244,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1755</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>709058</t>
+          <t>1899703</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>705200</t>
+          <t>1868116</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>712129</t>
+          <t>1926756</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>92,2%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>90,67%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>93,51%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>2748</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>773401</t>
+          <t>2017969</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>768446</t>
+          <t>1991932</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>777058</t>
+          <t>2041725</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>90,39%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>8340</t>
+          <t>4503</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1482460</t>
+          <t>3917672</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1476409</t>
+          <t>3881496</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1487844</t>
+          <t>3953171</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>97,04%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>92,71%</t>
         </is>
       </c>
     </row>
@@ -3357,22 +3357,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3392,22 +3392,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>3007</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2203693</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2203693</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2203693</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3427,22 +3427,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>4903</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264088</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264088</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264088</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de medicamentos para el catarro en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3717,107 +3717,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9952</t>
+          <t>6834</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2754</t>
+          <t>3550</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28430</t>
+          <t>13146</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16007</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6968</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>27758</t>
+          <t>8039</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>25959</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>14099</t>
+          <t>6815</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>44516</t>
+          <t>17970</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>5,28%</t>
         </is>
       </c>
     </row>
@@ -3830,107 +3830,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>226284</t>
+          <t>163337</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>207806</t>
+          <t>157025</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>233482</t>
+          <t>166621</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>92,27%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>97,91%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>263</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>168346</t>
+          <t>166518</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>156595</t>
+          <t>162403</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>177385</t>
+          <t>168838</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>91,32%</t>
+          <t>97,7%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,94%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>524</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>394630</t>
+          <t>329855</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>376073</t>
+          <t>322643</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>406490</t>
+          <t>333798</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>89,42%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>98,0%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4060,107 +4060,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34005</t>
+          <t>6636</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21370</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50589</t>
+          <t>11971</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19580</t>
+          <t>8559</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7969</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31302</t>
+          <t>13728</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>53586</t>
+          <t>15195</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>32213</t>
+          <t>10352</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>75504</t>
+          <t>22860</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>195363</t>
+          <t>175577</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>178779</t>
+          <t>170242</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>207998</t>
+          <t>178633</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>85,17%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>77,94%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>90,68%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>301</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>294848</t>
+          <t>202919</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>283126</t>
+          <t>197750</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>306459</t>
+          <t>206783</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,77%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>93,51%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>579</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>490210</t>
+          <t>378495</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>468292</t>
+          <t>370830</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>511583</t>
+          <t>383338</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>90,15%</t>
+          <t>96,14%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>86,12%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>97,37%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>604</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24650</t>
+          <t>6684</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15628</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36849</t>
+          <t>12811</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21854</t>
+          <t>8921</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15084</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>30564</t>
+          <t>16423</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>46505</t>
+          <t>15606</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>35231</t>
+          <t>9725</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>60586</t>
+          <t>23870</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>4,8%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>381</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>286119</t>
+          <t>241629</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>273920</t>
+          <t>235502</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>295141</t>
+          <t>244892</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,07%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,14%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>98,62%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>299978</t>
+          <t>239730</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>291268</t>
+          <t>232228</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>306748</t>
+          <t>243651</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>96,41%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,5%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>775</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>586095</t>
+          <t>481358</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>572014</t>
+          <t>473094</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>597369</t>
+          <t>487239</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>96,86%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,42%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>98,04%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>406</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>321832</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>321832</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>321832</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>798</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>632600</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>632600</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>632600</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25339</t>
+          <t>6631</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7452</t>
+          <t>3396</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>46218</t>
+          <t>11757</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26528</t>
+          <t>9696</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18997</t>
+          <t>5804</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33999</t>
+          <t>16321</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>51867</t>
+          <t>16327</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>26966</t>
+          <t>11048</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>74188</t>
+          <t>23790</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>4,13%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>473</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>601825</t>
+          <t>290376</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>580946</t>
+          <t>285250</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>619712</t>
+          <t>293611</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>97,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,63%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>98,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>441</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>378274</t>
+          <t>269279</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>370803</t>
+          <t>262654</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>385805</t>
+          <t>273171</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,6%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>914</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>980099</t>
+          <t>559656</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>957778</t>
+          <t>552193</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1005000</t>
+          <t>564935</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>97,17%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>98,08%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>942</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>23487</t>
+          <t>3410</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14962</t>
+          <t>1228</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>33112</t>
+          <t>7378</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>34088</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>26378</t>
+          <t>2245</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>42850</t>
+          <t>8663</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>57575</t>
+          <t>8070</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>46830</t>
+          <t>4866</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>71028</t>
+          <t>13152</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>2,69%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>364</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>315642</t>
+          <t>231290</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>306017</t>
+          <t>227322</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>324167</t>
+          <t>233472</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>96,86%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>99,48%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>409</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>284806</t>
+          <t>249436</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>276044</t>
+          <t>245433</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>292516</t>
+          <t>251851</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>86,56%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>773</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>600449</t>
+          <t>480726</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>586996</t>
+          <t>475644</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>611194</t>
+          <t>483930</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>89,21%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>92,88%</t>
+          <t>99,0%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>788</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17875</t>
+          <t>6634</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12221</t>
+          <t>3842</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>25183</t>
+          <t>10576</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24364</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7303</t>
+          <t>2327</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>48008</t>
+          <t>7201</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>42240</t>
+          <t>10930</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>14105</t>
+          <t>7400</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>66907</t>
+          <t>15517</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>4,16%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>551</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>190209</t>
+          <t>177414</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>182901</t>
+          <t>173472</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>195863</t>
+          <t>180206</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>87,9%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>97,91%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>473</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>428278</t>
+          <t>184378</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>404634</t>
+          <t>181473</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>445339</t>
+          <t>186347</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,39%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>618487</t>
+          <t>361793</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>593820</t>
+          <t>357206</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>646622</t>
+          <t>365323</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,87%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>98,01%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>570</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>486</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5775,107 +5775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6490</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>9946</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2,71%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>8071</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>4570</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>14108</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>5,32%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>3,01%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>9,3%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>22645</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>16358</t>
+          <t>2525</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>29839</t>
+          <t>7957</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>30716</t>
+          <t>11089</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>23761</t>
+          <t>7393</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>38963</t>
+          <t>15350</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>4,28%</t>
         </is>
       </c>
     </row>
@@ -5888,107 +5888,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>461</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>143704</t>
+          <t>140043</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>137667</t>
+          <t>136587</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>147205</t>
+          <t>142567</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>90,7%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,99%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>515</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>210628</t>
+          <t>207221</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>203434</t>
+          <t>203863</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>216915</t>
+          <t>209295</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>97,83%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>87,21%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>976</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>354332</t>
+          <t>347264</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>346085</t>
+          <t>343003</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>361287</t>
+          <t>350960</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>89,88%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>97,94%</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6036,22 +6036,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>528</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6071,22 +6071,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>385048</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>385048</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>385048</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6118,107 +6118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>143380</t>
+          <t>43318</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>99212</t>
+          <t>34358</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>178214</t>
+          <t>53592</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>165067</t>
+          <t>44656</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>116769</t>
+          <t>35199</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>194050</t>
+          <t>56065</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>174</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>308446</t>
+          <t>87974</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>236347</t>
+          <t>74162</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>353023</t>
+          <t>102523</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>3,39%</t>
         </is>
       </c>
     </row>
@@ -6231,107 +6231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1755</t>
+          <t>2769</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1959145</t>
+          <t>1419668</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1924311</t>
+          <t>1409394</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2003313</t>
+          <t>1428628</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>97,04%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>97,65%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2748</t>
+          <t>2796</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2065157</t>
+          <t>1519481</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2036174</t>
+          <t>1508072</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2113455</t>
+          <t>1528938</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4503</t>
+          <t>5565</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>4024304</t>
+          <t>2939148</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3979727</t>
+          <t>2924599</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4096403</t>
+          <t>2952960</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>92,88%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>91,85%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>97,55%</t>
         </is>
       </c>
     </row>
@@ -6344,22 +6344,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6379,22 +6379,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3007</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2230224</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2230224</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2230224</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6414,22 +6414,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4903</t>
+          <t>5739</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4332750</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4332750</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4332750</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para el catarro en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6704,107 +6704,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6834</t>
+          <t>495</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3550</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13146</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>768</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1604</t>
+          <t>267</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8039</t>
+          <t>1622</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>1263</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>6815</t>
+          <t>551</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>17970</t>
+          <t>2623</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>1,83%</t>
         </is>
       </c>
     </row>
@@ -6817,107 +6817,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>374</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>163337</t>
+          <t>76386</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>157025</t>
+          <t>75131</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>166621</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>99,36%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>342</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>166518</t>
+          <t>65474</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>162403</t>
+          <t>64620</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>168838</t>
+          <t>65975</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>99,6%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>716</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>329855</t>
+          <t>141860</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>322643</t>
+          <t>140500</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>333798</t>
+          <t>142572</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>99,62%</t>
         </is>
       </c>
     </row>
@@ -6930,22 +6930,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6965,22 +6965,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7000,22 +7000,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7047,107 +7047,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6636</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>547</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11971</t>
+          <t>2726</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8559</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4695</t>
+          <t>528</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13728</t>
+          <t>3090</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>15195</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>10352</t>
+          <t>1435</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>22860</t>
+          <t>4651</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -7160,107 +7160,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>175577</t>
+          <t>73643</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>170242</t>
+          <t>72257</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>178633</t>
+          <t>74436</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,36%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>361</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>202919</t>
+          <t>66734</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>197750</t>
+          <t>64958</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>206783</t>
+          <t>67520</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>98,07%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>751</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>378495</t>
+          <t>140376</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>370830</t>
+          <t>138380</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>383338</t>
+          <t>141596</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,14%</t>
+          <t>98,14%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,37%</t>
+          <t>99,0%</t>
         </is>
       </c>
     </row>
@@ -7273,22 +7273,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7308,22 +7308,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7390,107 +7390,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6684</t>
+          <t>1106</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3421</t>
+          <t>462</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12811</t>
+          <t>2889</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8921</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1778</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16423</t>
+          <t>5190</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>15606</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9725</t>
+          <t>2545</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>23870</t>
+          <t>6428</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>2,99%</t>
         </is>
       </c>
     </row>
@@ -7503,107 +7503,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>562</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>241629</t>
+          <t>102854</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>235502</t>
+          <t>101071</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>244892</t>
+          <t>103498</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,31%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>99,56%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>564</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>239730</t>
+          <t>107551</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>232228</t>
+          <t>105525</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>243651</t>
+          <t>108937</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,4%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>481358</t>
+          <t>210405</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>473094</t>
+          <t>208247</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>487239</t>
+          <t>212130</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>98,81%</t>
         </is>
       </c>
     </row>
@@ -7616,22 +7616,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7651,22 +7651,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7686,22 +7686,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7733,107 +7733,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6631</t>
+          <t>1839</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3396</t>
+          <t>933</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11757</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9696</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5804</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16321</t>
+          <t>5430</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>16327</t>
+          <t>5116</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>11048</t>
+          <t>3415</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>23790</t>
+          <t>8068</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>2,71%</t>
         </is>
       </c>
     </row>
@@ -7846,107 +7846,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>794</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>290376</t>
+          <t>142939</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>285250</t>
+          <t>141009</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>293611</t>
+          <t>143845</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,77%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>99,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>795</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>269279</t>
+          <t>149267</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>262654</t>
+          <t>147114</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>273171</t>
+          <t>150582</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>914</t>
+          <t>1589</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>559656</t>
+          <t>292205</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>552193</t>
+          <t>289253</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>564935</t>
+          <t>293906</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>98,28%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,08%</t>
+          <t>98,85%</t>
         </is>
       </c>
     </row>
@@ -7959,22 +7959,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7994,22 +7994,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8029,22 +8029,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8076,107 +8076,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3410</t>
+          <t>4684</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1228</t>
+          <t>3116</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7378</t>
+          <t>6923</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4660</t>
+          <t>6551</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2245</t>
+          <t>4390</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>8663</t>
+          <t>9293</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>8070</t>
+          <t>11235</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>4866</t>
+          <t>8481</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>13152</t>
+          <t>14507</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>5,15%</t>
         </is>
       </c>
     </row>
@@ -8189,107 +8189,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>706</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>231290</t>
+          <t>124898</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>227322</t>
+          <t>122659</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>233472</t>
+          <t>126466</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>829</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>249436</t>
+          <t>145364</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>245433</t>
+          <t>142622</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>251851</t>
+          <t>147525</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>96,59%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>480726</t>
+          <t>270263</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>475644</t>
+          <t>266991</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>483930</t>
+          <t>273017</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>97,31%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>96,99%</t>
         </is>
       </c>
     </row>
@@ -8302,22 +8302,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8337,22 +8337,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8372,22 +8372,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8424,102 +8424,102 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6634</t>
+          <t>2770</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3842</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10576</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4296</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>2901</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7201</t>
+          <t>6697</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>45</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>10930</t>
+          <t>7161</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>7400</t>
+          <t>5234</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>15517</t>
+          <t>9564</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,34%</t>
         </is>
       </c>
     </row>
@@ -8532,107 +8532,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>627</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>177414</t>
+          <t>101696</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>173472</t>
+          <t>100243</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>180206</t>
+          <t>102771</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>677</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>184378</t>
+          <t>111389</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>181473</t>
+          <t>109083</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>186347</t>
+          <t>112879</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>97,72%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>1304</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>361793</t>
+          <t>213085</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>357206</t>
+          <t>210682</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>365323</t>
+          <t>215012</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>95,66%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>97,62%</t>
         </is>
       </c>
     </row>
@@ -8645,22 +8645,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -8680,22 +8680,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8715,22 +8715,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8762,107 +8762,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>6490</t>
+          <t>2580</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3966</t>
+          <t>1437</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>9946</t>
+          <t>4515</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4599</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>3173</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>7957</t>
+          <t>7048</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>11089</t>
+          <t>7269</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>7393</t>
+          <t>5482</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>15350</t>
+          <t>10095</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,56%</t>
         </is>
       </c>
     </row>
@@ -8875,107 +8875,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>540</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>140043</t>
+          <t>86643</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>136587</t>
+          <t>84708</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>142567</t>
+          <t>87786</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>779</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>207221</t>
+          <t>127623</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>203863</t>
+          <t>125264</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>209295</t>
+          <t>129139</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>97,83%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>94,67%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>1319</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>347264</t>
+          <t>214266</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>343003</t>
+          <t>211440</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>350960</t>
+          <t>216053</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>97,53%</t>
         </is>
       </c>
     </row>
@@ -8988,22 +8988,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9023,22 +9023,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9058,22 +9058,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9105,107 +9105,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>43318</t>
+          <t>14814</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>34358</t>
+          <t>11743</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>53592</t>
+          <t>18672</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
+          <t>2,05%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>24155</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>20498</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>29110</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>38969</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>33585</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>45020</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
           <t>2,96%</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>2,35%</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>3,66%</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>44656</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>35199</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>56065</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>2,85%</t>
-        </is>
-      </c>
-      <c r="O25" s="2" t="inlineStr">
-        <is>
-          <t>2,25%</t>
-        </is>
-      </c>
-      <c r="P25" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
-        </is>
-      </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>87974</t>
-        </is>
-      </c>
-      <c r="S25" s="2" t="inlineStr">
-        <is>
-          <t>74162</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>102523</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="inlineStr">
-        <is>
-          <t>2,91%</t>
-        </is>
-      </c>
-      <c r="V25" s="2" t="inlineStr">
-        <is>
-          <t>2,45%</t>
-        </is>
-      </c>
-      <c r="W25" s="2" t="inlineStr">
-        <is>
-          <t>3,39%</t>
         </is>
       </c>
     </row>
@@ -9218,107 +9218,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2769</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1419668</t>
+          <t>709058</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1409394</t>
+          <t>705200</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1428628</t>
+          <t>712129</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
+          <t>97,95%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>97,42%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>98,38%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>4347</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>773401</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>768446</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>777058</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>96,97%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>96,35%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>97,43%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>8340</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>1482460</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>1476409</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>1487844</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>97,44%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
           <t>97,04%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>96,34%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>97,65%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>2796</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>1519481</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>1508072</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>1528938</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>97,15%</t>
-        </is>
-      </c>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>96,42%</t>
-        </is>
-      </c>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>97,75%</t>
-        </is>
-      </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>5565</t>
-        </is>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>2939148</t>
-        </is>
-      </c>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>2924599</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="inlineStr">
-        <is>
-          <t>2952960</t>
-        </is>
-      </c>
-      <c r="U26" s="2" t="inlineStr">
-        <is>
-          <t>97,09%</t>
-        </is>
-      </c>
-      <c r="V26" s="2" t="inlineStr">
-        <is>
-          <t>96,61%</t>
-        </is>
-      </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>97,79%</t>
         </is>
       </c>
     </row>
@@ -9331,22 +9331,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -9366,22 +9366,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -9401,22 +9401,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5739</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
